--- a/results/results_6.xlsx
+++ b/results/results_6.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\TinyGP\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E385ECB-CF6D-41B6-81E4-C6E3E01DA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D605BF9-0EA6-4341-B453-960D26B4A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -357,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +377,24 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,16 +408,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBDDDD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,6 +435,2721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6174969951186005E-2"/>
+          <c:y val="3.9241448124769526E-2"/>
+          <c:w val="0.92194045207897846"/>
+          <c:h val="0.91015232511304967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.8019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6039603960396036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4059405940594054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.2079207920792072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8118811881188108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6138613861386126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4158415841584144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2178217821782162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.8217821782178198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.6237623762376217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.4257425742574235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.2277227722772253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.0297029702970271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.8316831683168289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6336633663366307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.4356435643564325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.2376237623762343</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0396039603960361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.8415841584158379</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6435643564356397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.4455445544554415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2475247524752433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0495049504950451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.8514851485148469</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.6534653465346487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4554455445544505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.2574257425742523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.0594059405940541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.8613861386138559</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.6633663366336577</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.4653465346534595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.2673267326732613</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.0693069306930632</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.871287128712865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.6732673267326668</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4752475247524686</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2772277227722704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0792079207920722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8811881188118742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6831683168316762</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4851485148514783</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.2871287128712803</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0891089108910823</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.89108910891088433</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.69306930693068636</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.49504950495048833</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2970297029702903</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-9.900990099009227E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9009900990105759E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29702970297030379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49504950495050182</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6930693069306999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89108910891089788</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0891089108910958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2871287128712938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4851485148514918</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6831683168316898</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8811881188118877</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0792079207920859</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2772277227722841</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4752475247524823</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6732673267326805</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8712871287128787</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0693069306930769</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2673267326732751</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4653465346534733</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6633663366336715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8613861386138697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0594059405940675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2574257425742656</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.4554455445544638</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.653465346534662</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8514851485148602</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0495049504950584</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2475247524752566</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.4455445544554548</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.643564356435653</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8415841584158512</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0396039603960494</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.2376237623762476</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4356435643564458</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.633663366336644</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.8316831683168422</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0297029702970404</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.2277227722772386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4257425742574368</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.623762376237635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8217821782178332</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0198019801980305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.2178217821782287</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4158415841584269</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.6138613861386251</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.8118811881188233</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.0099009900990215</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.2079207920792197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.4059405940594178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>380.58985447883606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.5242436969646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>449.76908531826786</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225.60471302578816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>426.4993828197704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375.21505142854551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368.3245266421427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.54937228253394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140.78928120025708</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224.63558219444653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.02463840977859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.75969822338283</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294.55326389763911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>284.83271990821765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>265.35387940524117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.92200509595719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>272.92260993548359</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>268.1140767694535</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152.85288550584707</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>221.01660678204607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>218.95755844351788</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.19648068415825</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>188.90935160391297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>176.09866417944272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156.30800772063827</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.665646364333298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>229.94325195334827</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>219.74670291043938</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>117.38595955723127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.12094725090985</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>109.77195627251591</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172.15517088074654</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.923270530764157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.83352405030908</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>148.14102867870568</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.834003090519445</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.796475962463099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103.88632283642187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.692987282712437</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92.273904601425002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.475189116430876</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.382700754350111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.019786090362764</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.077967448908019</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.82740633595904</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.518673105410869</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.739481744783957</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.377670731033561</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83.569896840672698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.449443605013556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.473778460846351</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>61.33624238008921</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.980204983840132</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9761002180377787</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.16280377417155</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.518778723649429</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25.283891316103293</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.916258924452023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.091679500979492</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21.25496417383912</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.3501873483331401</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.496725048858366</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.7276191232296654</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.5329303517549704</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.44959319410308751</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-5.0298461528307854</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.73769040239074</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.576291284401286</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-11.088663844568742</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-15.501819489481719</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6817913844461287</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-27.069058100904599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-12.30844464310016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-20.05684157364891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-39.565400521564413</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-39.592681036055438</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-33.542583621234314</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-14.169860661655051</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-29.066268999241728</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-57.776074391687175</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.4005651501578313</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-54.996012598694023</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-45.981408895528745</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.750728531545818</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38.277357372182713</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.862225549827144</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27.897913247904988</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-70.725721116592439</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.005576852840306</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-37.487315185303075</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-17.664655909656517</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-97.311801157258628</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-60.679587229667163</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-54.498054516594777</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>73.050607441851014</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-24.936055943003169</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-17.627617529684031</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-37.875951683856641</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-19.613004286561932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-621A-4F7F-BDF2-F7ABC00D12F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.8019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6039603960396036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4059405940594054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.2079207920792072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8118811881188108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6138613861386126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4158415841584144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2178217821782162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.8217821782178198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.6237623762376217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.4257425742574235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.2277227722772253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.0297029702970271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.8316831683168289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6336633663366307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.4356435643564325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.2376237623762343</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0396039603960361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.8415841584158379</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6435643564356397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.4455445544554415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2475247524752433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0495049504950451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.8514851485148469</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.6534653465346487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4554455445544505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.2574257425742523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.0594059405940541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.8613861386138559</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.6633663366336577</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.4653465346534595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.2673267326732613</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.0693069306930632</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.871287128712865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.6732673267326668</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4752475247524686</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2772277227722704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0792079207920722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8811881188118742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6831683168316762</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4851485148514783</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.2871287128712803</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0891089108910823</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.89108910891088433</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.69306930693068636</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.49504950495048833</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2970297029702903</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-9.900990099009227E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9009900990105759E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29702970297030379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49504950495050182</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6930693069306999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89108910891089788</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0891089108910958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2871287128712938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4851485148514918</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6831683168316898</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8811881188118877</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0792079207920859</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2772277227722841</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4752475247524823</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6732673267326805</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8712871287128787</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0693069306930769</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2673267326732751</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4653465346534733</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6633663366336715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8613861386138697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0594059405940675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2574257425742656</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.4554455445544638</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.653465346534662</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8514851485148602</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0495049504950584</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2475247524752566</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.4455445544554548</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.643564356435653</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8415841584158512</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0396039603960494</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.2376237623762476</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4356435643564458</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.633663366336644</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.8316831683168422</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0297029702970404</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.2277227722772386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4257425742574368</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.623762376237635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8217821782178332</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0198019801980305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.2178217821782287</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4158415841584269</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.6138613861386251</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.8118811881188233</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.0099009900990215</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.2079207920792197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.4059405940594178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$2:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>40.664818192812866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.770766709591982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.87671522637109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.982663743150205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.088612259929313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.194560776708428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.300509293487544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.406457810266652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.512406327045767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.618354843824875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.72430336060399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.830251877383102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.936200394162213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.042148910941325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.148097427720437</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.254045944499548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.359994461278664</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.465942978057775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.571891494836887</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.677840011615999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.78378852839511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.889737045174222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.995685561953334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.101634078732449</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.20758259551156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.313531112290672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.41947962906978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.525428145848895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.631376662628005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.737325179407119</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.84327369618623</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.949222212965342</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.055170729744455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.161119246523567</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.267067763302679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3730162800817904</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.4789647968609039</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5849133136400155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.6908618304191272</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7968103471982397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9027588639773523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0087073807564648</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1146558975355783</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2206044143146912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3265529310938047</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43250144787291778</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.46155003534796907</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.3556015185688559</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.2496530017897429</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.1437044850106299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.0377559682315178</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4.9318074514524044</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-5.825858934673291</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.7199104178941775</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.6139619011150659</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-8.5080133843359533</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.4020648675568399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-10.296116350777726</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-11.190167833998613</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-12.0842193172195</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-12.978270800440386</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-13.872322283661275</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-14.766373766882163</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-15.660425250103049</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-16.554476733323938</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-17.448528216544826</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-18.342579699765714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-19.236631182986603</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-20.130682666207491</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-21.024734149428376</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-21.918785632649264</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-22.812837115870153</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-23.706888599091041</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-24.600940082311929</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-25.494991565532818</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-26.389043048753706</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-27.283094531974591</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-28.177146015195479</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-29.071197498416367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-29.965248981637256</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-30.859300464858144</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-31.753351948079032</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-32.647403431299921</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-33.541454914520806</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-34.435506397741698</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-35.329557880962582</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-36.223609364183467</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-37.117660847404359</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-38.011712330625244</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-38.905763813846136</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-39.79981529706702</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-40.693866780287898</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-41.58791826350879</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-42.481969746729675</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-43.376021229950567</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-44.270072713171452</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-45.164124196392343</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-46.058175679613228</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-46.952227162834113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-621A-4F7F-BDF2-F7ABC00D12F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.8019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6039603960396036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4059405940594054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.2079207920792072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.009900990099009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8118811881188108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.6138613861386126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4158415841584144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2178217821782162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.8217821782178198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.6237623762376217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.4257425742574235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.2277227722772253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.0297029702970271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.8316831683168289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.6336633663366307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.4356435643564325</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.2376237623762343</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.0396039603960361</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.8415841584158379</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6435643564356397</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.4455445544554415</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.2475247524752433</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.0495049504950451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.8514851485148469</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.6534653465346487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4554455445544505</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.2574257425742523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.0594059405940541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.8613861386138559</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.6633663366336577</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.4653465346534595</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.2673267326732613</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.0693069306930632</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.871287128712865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.6732673267326668</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4752475247524686</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2772277227722704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.0792079207920722</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.8811881188118742</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6831683168316762</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4851485148514783</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.2871287128712803</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0891089108910823</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.89108910891088433</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.69306930693068636</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.49504950495048833</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.2970297029702903</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-9.900990099009227E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.9009900990105759E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29702970297030379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49504950495050182</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6930693069306999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.89108910891089788</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0891089108910958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2871287128712938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4851485148514918</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6831683168316898</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8811881188118877</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0792079207920859</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2772277227722841</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4752475247524823</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6732673267326805</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8712871287128787</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0693069306930769</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2673267326732751</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4653465346534733</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6633663366336715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8613861386138697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0594059405940675</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.2574257425742656</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.4554455445544638</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.653465346534662</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.8514851485148602</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0495049504950584</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2475247524752566</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.4455445544554548</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.643564356435653</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.8415841584158512</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0396039603960494</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.2376237623762476</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4356435643564458</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.633663366336644</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.8316831683168422</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0297029702970404</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.2277227722772386</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4257425742574368</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.623762376237635</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.8217821782178332</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0198019801980305</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.2178217821782287</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4158415841584269</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.6138613861386251</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.8118811881188233</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.0099009900990215</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.2079207920792197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.4059405940594178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$O$2:$O$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>-242.19244457046534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-127.71146505035753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-266.49459193409649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.04329699814303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-203.70920604403091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-233.95209710355107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216.62823878304616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.32309396992082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.77605614145762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-83.737685612767478</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.313673811426316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.462891386226389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-19.368038279283219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.289023883018615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.297495634297519</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-48.132197350503908</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-37.034427421897234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2700227568608744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2537092547677264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8112602611857791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9133522892678112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6633797320875461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4808994287252659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6218928483324468</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72838939937477154</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.86366894955299334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.18436337840925152</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66158242405932344</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.036980887593444</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.562127713011652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.564813846947626</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.89735625630437</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.400363270430447</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-58.349060152565947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-50.977724300619791</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23.024873928326762</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-81.309661014918717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.81298741347284</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-64.156298940056189</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.00293764021437</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-106.28947718680982</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.036558244416831</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.670505736526593</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80.50590580472678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>107.1449204612158</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103.03855720314451</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.453867737615006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61.111388713263459</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77.725635197608327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4648813124512507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-68.389575220799529</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-55.238559828396468</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-37.362494133020967</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-44.789573896850818</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.6958036666231528</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.9867908121540157</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.4367504916662943</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-12.893210829399258</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-12.2428078988879</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.0720620984956222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.575325381177815</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.4690471176076734</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.1695287570626671</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.1541355500538777</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97768653629606539</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7551184198486105</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1285870732579406</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9841840022112263</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3365076152702093</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3326924863282594</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2014493571632689</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3498349746752154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6898530418118154</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.45297068074948149</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1523189697052427</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.953416166984393</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.0814175627403824</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-10.501244474965279</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-14.838403960637175</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.3897463804452679</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-22.545595625461747</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.969570256850098</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34.866554040571771</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-41.601195089710878</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49.603151637719833</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.6136600726717658</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.4659552145918333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60.197514932764548</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>58.756857362476381</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-43.977410544359927</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-77.008678947570587</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-4.6032085799262745</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>83.013927003873462</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-9.653740006185723</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.705411036935597</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-38.306749934928668</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3386690112095136</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-56.778063703973871</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>32.129222755267314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-621A-4F7F-BDF2-F7ABC00D12F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="848443184"/>
+        <c:axId val="848439440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="848443184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848439440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848439440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848443184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4987F94C-D23B-425F-BE8A-592DD1E85FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,12 +3452,17 @@
   <dimension ref="A1:CY102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,21 +3773,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-10</v>
       </c>
       <c r="B2">
         <v>-7.5564825534820557</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>380.58985447883606</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">-8.2982582976871*(-4.78675742764331+A2)</f>
         <v>122.70433251982745</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:E33" si="1">-4.51495999026548*(0.993315936245589+A2)</f>
         <v>40.664818192812866</v>
       </c>
@@ -1078,7 +3827,7 @@
         <f t="shared" ref="N2:N33" si="10">1.87418458585183*(-6.26830936687482+2.36623548778424*A2+B2)</f>
         <v>-70.257832696749873</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <f t="shared" ref="O2:O33" si="11">2.17337930756405*(0.553522432629451-2.03212557919344*(-3.90152780374793+A2)*(2.17337930756405-2.46325448171303*COS(2.29854117014382-0.727140141483572*A2))*COS(0.543707892585052*(-6.23440227317705+0.952390432897537*(-3.90152780374793+A2)*A2)*SIN(0.951253809228297*B2)))</f>
         <v>-242.19244457046534</v>
       </c>
@@ -1435,21 +4184,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-9.8019801980198018</v>
       </c>
       <c r="B3">
         <v>-0.80880832672119141</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>126.5242436969646</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
         <v>121.06111305493891</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f t="shared" si="1"/>
         <v>39.770766709591982</v>
       </c>
@@ -1489,7 +4238,7 @@
         <f t="shared" si="10"/>
         <v>-56.733274962149387</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <f t="shared" si="11"/>
         <v>-127.71146505035753</v>
       </c>
@@ -1846,21 +4595,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-9.6039603960396036</v>
       </c>
       <c r="B4">
         <v>-9.9557191133499146</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>449.76908531826786</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>119.41789359005038</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>38.87671522637109</v>
       </c>
@@ -1900,7 +4649,7 @@
         <f t="shared" si="10"/>
         <v>-72.998103458155171</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <f t="shared" si="11"/>
         <v>-266.49459193409649</v>
       </c>
@@ -2257,21 +5006,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-9.4059405940594054</v>
       </c>
       <c r="B5">
         <v>-3.8654575347900391</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>225.60471302578816</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>117.77467412516184</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>37.982663743150205</v>
       </c>
@@ -2311,7 +5060,7 @@
         <f t="shared" si="10"/>
         <v>-60.705658375357004</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <f t="shared" si="11"/>
         <v>267.04329699814303</v>
       </c>
@@ -2668,21 +5417,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-9.2079207920792072</v>
       </c>
       <c r="B6">
         <v>-9.8404550552368164</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>426.4993828197704</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>116.13145466027331</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>37.088612259929313</v>
       </c>
@@ -2722,7 +5471,7 @@
         <f t="shared" si="10"/>
         <v>-71.025735920225671</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <f t="shared" si="11"/>
         <v>-203.70920604403091</v>
       </c>
@@ -3079,21 +5828,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-9.009900990099009</v>
       </c>
       <c r="B7">
         <v>-8.6112046241760254</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>375.21505142854551</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>114.48823519538477</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>36.194560776708428</v>
       </c>
@@ -3133,7 +5882,7 @@
         <f t="shared" si="10"/>
         <v>-67.8437230017242</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <f t="shared" si="11"/>
         <v>-233.95209710355107</v>
       </c>
@@ -3490,21 +6239,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-8.8118811881188108</v>
       </c>
       <c r="B8">
         <v>-8.663666844367981</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>368.3245266421427</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>112.84501573049623</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>35.300509293487544</v>
       </c>
@@ -3544,7 +6293,7 @@
         <f t="shared" si="10"/>
         <v>-67.063876177691924</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <f t="shared" si="11"/>
         <v>216.62823878304616</v>
       </c>
@@ -3901,21 +6650,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-8.6138613861386126</v>
       </c>
       <c r="B9">
         <v>-1.8985309600830078</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>137.54937228253394</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>111.2017962656077</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>34.406457810266652</v>
       </c>
@@ -3955,7 +6704,7 @@
         <f t="shared" si="10"/>
         <v>-53.506592073716327</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <f t="shared" si="11"/>
         <v>157.32309396992082</v>
       </c>
@@ -4312,21 +7061,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-8.4158415841584144</v>
       </c>
       <c r="B10">
         <v>-2.1385483741760254</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>140.78928120025708</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>109.55857680071917</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>33.512406327045767</v>
       </c>
@@ -4366,7 +7115,7 @@
         <f t="shared" si="10"/>
         <v>-53.078258303089875</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <f t="shared" si="11"/>
         <v>103.77605614145762</v>
       </c>
@@ -4723,21 +7472,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-8.2178217821782162</v>
       </c>
       <c r="B11">
         <v>-4.9316239356994629</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>224.63558219444653</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>107.91535733583062</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>32.618354843824875</v>
       </c>
@@ -4777,7 +7526,7 @@
         <f t="shared" si="10"/>
         <v>-57.434826759160934</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <f t="shared" si="11"/>
         <v>-83.737685612767478</v>
       </c>
@@ -5134,21 +7883,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-8.019801980198018</v>
       </c>
       <c r="B12">
         <v>-4.3692855834960938</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>201.02463840977859</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>106.27213787094209</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>31.72430336060399</v>
       </c>
@@ -5188,7 +7937,7 @@
         <f t="shared" si="10"/>
         <v>-55.502730178972456</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <f t="shared" si="11"/>
         <v>16.313673811426316</v>
       </c>
@@ -5545,21 +8294,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-7.8217821782178198</v>
       </c>
       <c r="B13">
         <v>-3.170140266418457</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>158.75969822338283</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>104.62891840605356</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>30.830251877383102</v>
       </c>
@@ -5599,7 +8348,7 @@
         <f t="shared" si="10"/>
         <v>-52.377139801053538</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <f t="shared" si="11"/>
         <v>96.462891386226389</v>
       </c>
@@ -5956,21 +8705,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-7.6237623762376217</v>
       </c>
       <c r="B14">
         <v>-7.8815321922302246</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>294.55326389763911</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>102.98569894116501</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>29.936200394162213</v>
       </c>
@@ -6010,7 +8759,7 @@
         <f t="shared" si="10"/>
         <v>-60.328987217861112</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <f t="shared" si="11"/>
         <v>-19.368038279283219</v>
       </c>
@@ -6367,21 +9116,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-7.4257425742574235</v>
       </c>
       <c r="B15">
         <v>-7.8112268447875977</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>284.83271990821765</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>101.34247947627648</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>29.042148910941325</v>
       </c>
@@ -6421,7 +9170,7 @@
         <f t="shared" si="10"/>
         <v>-59.31905131092558</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <f t="shared" si="11"/>
         <v>43.289023883018615</v>
       </c>
@@ -6778,21 +9527,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-7.2277227722772253</v>
       </c>
       <c r="B16">
         <v>-7.3950653076171875</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>265.35387940524117</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>99.699260011387949</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>28.148097427720437</v>
       </c>
@@ -6832,7 +9581,7 @@
         <f t="shared" si="10"/>
         <v>-57.660917064280788</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <f t="shared" si="11"/>
         <v>40.297495634297519</v>
       </c>
@@ -7189,21 +9938,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-7.0297029702970271</v>
       </c>
       <c r="B17">
         <v>-4.218904972076416</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>168.92200509595719</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>98.056040546499403</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>27.254045944499548</v>
       </c>
@@ -7243,7 +9992,7 @@
         <f t="shared" si="10"/>
         <v>-50.830035612760689</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <f t="shared" si="11"/>
         <v>-48.132197350503908</v>
       </c>
@@ -7600,21 +10349,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-6.8316831683168289</v>
       </c>
       <c r="B18">
         <v>-8.192409873008728</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>272.92260993548359</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>96.412821081610872</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
         <v>26.359994461278664</v>
       </c>
@@ -7654,7 +10403,7 @@
         <f t="shared" si="10"/>
         <v>-57.398946541439123</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <f t="shared" si="11"/>
         <v>-37.034427421897234</v>
       </c>
@@ -8011,21 +10760,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-6.6336633663366307</v>
       </c>
       <c r="B19">
         <v>-8.2936942577362061</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>268.1140767694535</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>94.769601616722341</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>25.465942978057775</v>
       </c>
@@ -8065,7 +10814,7 @@
         <f t="shared" si="10"/>
         <v>-56.710601465627242</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <f t="shared" si="11"/>
         <v>6.2700227568608744</v>
       </c>
@@ -8422,21 +11171,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-6.4356435643564325</v>
       </c>
       <c r="B20">
         <v>-4.1979575157165527</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>152.85288550584707</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>93.126382151833795</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>24.571891494836887</v>
       </c>
@@ -8476,7 +11225,7 @@
         <f t="shared" si="10"/>
         <v>-48.156264087571408</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <f t="shared" si="11"/>
         <v>-1.2537092547677264</v>
       </c>
@@ -8833,21 +11582,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-6.2376237623762343</v>
       </c>
       <c r="B21">
         <v>-7.0435018539428711</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>221.01660678204607</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>91.483162686945263</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
         <v>23.677840011615999</v>
       </c>
@@ -8887,7 +11636,7 @@
         <f t="shared" si="10"/>
         <v>-52.611168716177517</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <f t="shared" si="11"/>
         <v>3.8112602611857791</v>
       </c>
@@ -9244,21 +11993,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-6.0396039603960361</v>
       </c>
       <c r="B22">
         <v>-7.2248935699462891</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>218.95755844351788</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>89.839943222056732</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
         <v>22.78378852839511</v>
       </c>
@@ -9298,7 +12047,7 @@
         <f t="shared" si="10"/>
         <v>-52.072959565856728</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <f t="shared" si="11"/>
         <v>4.9133522892678112</v>
       </c>
@@ -9655,21 +12404,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-5.8415841584158379</v>
       </c>
       <c r="B23">
         <v>-9.462781548500061</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>267.19648068415825</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>88.196723757168186</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>21.889737045174222</v>
       </c>
@@ -9709,7 +12458,7 @@
         <f t="shared" si="10"/>
         <v>-55.389004011669712</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <f t="shared" si="11"/>
         <v>3.6633797320875461</v>
       </c>
@@ -10066,21 +12815,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-5.6435643564356397</v>
       </c>
       <c r="B24">
         <v>-6.5213127136230469</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>188.90935160391297</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>86.553504292279655</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <f t="shared" si="1"/>
         <v>20.995685561953334</v>
       </c>
@@ -10120,7 +12869,7 @@
         <f t="shared" si="10"/>
         <v>-48.997977753124061</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <f t="shared" si="11"/>
         <v>5.4808994287252659</v>
       </c>
@@ -10477,21 +13226,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-5.4455445544554415</v>
       </c>
       <c r="B25">
         <v>-6.2324631214141846</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>176.09866417944272</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>84.910284827391123</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>20.101634078732449</v>
       </c>
@@ -10531,7 +13280,7 @@
         <f t="shared" si="10"/>
         <v>-47.578449591321018</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <f t="shared" si="11"/>
         <v>2.6218928483324468</v>
       </c>
@@ -10888,21 +13637,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-5.2475247524752433</v>
       </c>
       <c r="B26">
         <v>-5.6181631088256836</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>156.30800772063827</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>83.267065362502578</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>19.20758259551156</v>
       </c>
@@ -10942,7 +13691,7 @@
         <f t="shared" si="10"/>
         <v>-45.548967268183461</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <f t="shared" si="11"/>
         <v>0.72838939937477154</v>
       </c>
@@ -11299,21 +14048,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-5.0495049504950451</v>
       </c>
       <c r="B27">
         <v>-2.6714272499084473</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>85.665646364333298</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>81.623845897614046</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>18.313531112290672</v>
       </c>
@@ -11353,7 +14102,7 @@
         <f t="shared" si="10"/>
         <v>-39.148069634368312</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <f t="shared" si="11"/>
         <v>-0.86366894955299334</v>
       </c>
@@ -11710,21 +14459,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-4.8514851485148469</v>
       </c>
       <c r="B28">
         <v>-9.529646635055542</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>229.94325195334827</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>79.980626432725515</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>17.41947962906978</v>
       </c>
@@ -11764,7 +14513,7 @@
         <f t="shared" si="10"/>
         <v>-51.123467983945609</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <f t="shared" si="11"/>
         <v>-0.18436337840925152</v>
       </c>
@@ -12121,21 +14870,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-4.6534653465346487</v>
       </c>
       <c r="B29">
         <v>-9.4030648469924927</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>219.74670291043938</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>78.337406967836969</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>16.525428145848895</v>
       </c>
@@ -12175,7 +14924,7 @@
         <f t="shared" si="10"/>
         <v>-50.008059639452675</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <f t="shared" si="11"/>
         <v>0.66158242405932344</v>
       </c>
@@ -12532,21 +15281,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-4.4554455445544505</v>
       </c>
       <c r="B30">
         <v>-4.7399277687072754</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>117.38595955723127</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>76.694187502948438</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>15.631376662628005</v>
       </c>
@@ -12586,7 +15335,7 @@
         <f t="shared" si="10"/>
         <v>-40.390309297160769</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <f t="shared" si="11"/>
         <v>-12.036980887593444</v>
       </c>
@@ -12943,21 +15692,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-4.2574257425742523</v>
       </c>
       <c r="B31">
         <v>-2.8320093154907227</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>75.12094725090985</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>75.050968038059906</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>14.737325179407119</v>
       </c>
@@ -12997,7 +15746,7 @@
         <f t="shared" si="10"/>
         <v>-35.936347232624435</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <f t="shared" si="11"/>
         <v>23.562127713011652</v>
       </c>
@@ -13354,21 +16103,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-4.0594059405940541</v>
       </c>
       <c r="B32">
         <v>-4.8123960494995117</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>109.77195627251591</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>73.407748573171361</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>13.84327369618623</v>
       </c>
@@ -13408,7 +16157,7 @@
         <f t="shared" si="10"/>
         <v>-38.769786815073552</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <f t="shared" si="11"/>
         <v>26.564813846947626</v>
       </c>
@@ -13765,21 +16514,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-3.8613861386138559</v>
       </c>
       <c r="B33">
         <v>-8.4074223041534424</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>172.15517088074654</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>71.764529108282829</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>12.949222212965342</v>
       </c>
@@ -13819,7 +16568,7 @@
         <f t="shared" si="10"/>
         <v>-44.629358898822979</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <f t="shared" si="11"/>
         <v>36.89735625630437</v>
       </c>
@@ -14176,21 +16925,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-3.6633663366336577</v>
       </c>
       <c r="B34">
         <v>-3.363128662109375</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>74.923270530764157</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="100">-8.2982582976871*(-4.78675742764331+A34)</f>
         <v>70.121309643394298</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <f t="shared" ref="E34:E65" si="101">-4.51495999026548*(0.993315936245589+A34)</f>
         <v>12.055170729744455</v>
       </c>
@@ -14230,7 +16979,7 @@
         <f t="shared" ref="N34:N65" si="110">1.87418458585183*(-6.26830936687482+2.36623548778424*A34+B34)</f>
         <v>-34.297250799937991</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="3">
         <f t="shared" ref="O34:O65" si="111">2.17337930756405*(0.553522432629451-2.03212557919344*(-3.90152780374793+A34)*(2.17337930756405-2.46325448171303*COS(2.29854117014382-0.727140141483572*A34))*COS(0.543707892585052*(-6.23440227317705+0.952390432897537*(-3.90152780374793+A34)*A34)*SIN(0.951253809228297*B34)))</f>
         <v>43.400363270430447</v>
       </c>
@@ -14587,21 +17336,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-3.4653465346534595</v>
       </c>
       <c r="B35">
         <v>-3.6114482879638672</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>75.83352405030908</v>
       </c>
       <c r="D35">
         <f t="shared" si="100"/>
         <v>68.478090178505752</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <f t="shared" si="101"/>
         <v>11.161119246523567</v>
       </c>
@@ -14641,7 +17390,7 @@
         <f t="shared" si="110"/>
         <v>-33.88447690662337</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="3">
         <f t="shared" si="111"/>
         <v>-58.349060152565947</v>
       </c>
@@ -14998,21 +17747,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-3.2673267326732613</v>
       </c>
       <c r="B36">
         <v>-8.1219953298568726</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>148.14102867870568</v>
       </c>
       <c r="D36">
         <f t="shared" si="100"/>
         <v>66.834870713617221</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <f t="shared" si="101"/>
         <v>10.267067763302679</v>
       </c>
@@ -15052,7 +17801,7 @@
         <f t="shared" si="110"/>
         <v>-41.459903937843201</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="3">
         <f t="shared" si="111"/>
         <v>-50.977724300619791</v>
       </c>
@@ -15409,21 +18158,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-3.0693069306930632</v>
       </c>
       <c r="B37">
         <v>-4.7762670516967773</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>87.834003090519445</v>
       </c>
       <c r="D37">
         <f t="shared" si="100"/>
         <v>65.191651248728689</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <f t="shared" si="101"/>
         <v>9.3730162800817904</v>
       </c>
@@ -15463,7 +18212,7 @@
         <f t="shared" si="110"/>
         <v>-34.311220862011361</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="3">
         <f t="shared" si="111"/>
         <v>23.024873928326762</v>
       </c>
@@ -15820,21 +18569,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-2.871287128712865</v>
       </c>
       <c r="B38">
         <v>-2.8533740043640137</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>53.796475962463099</v>
       </c>
       <c r="D38">
         <f t="shared" si="100"/>
         <v>63.548431783840158</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <f t="shared" si="101"/>
         <v>8.4789647968609039</v>
       </c>
@@ -15874,7 +18623,7 @@
         <f t="shared" si="110"/>
         <v>-29.829193644003034</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="3">
         <f t="shared" si="111"/>
         <v>-81.309661014918717</v>
       </c>
@@ -16231,21 +18980,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-2.6732673267326668</v>
       </c>
       <c r="B39">
         <v>-6.3742494583129883</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>103.88632283642187</v>
       </c>
       <c r="D39">
         <f t="shared" si="100"/>
         <v>61.905212318951619</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <f t="shared" si="101"/>
         <v>7.5849133136400155</v>
       </c>
@@ -16285,7 +19034,7 @@
         <f t="shared" si="110"/>
         <v>-35.549793440042656</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="3">
         <f t="shared" si="111"/>
         <v>31.81298741347284</v>
       </c>
@@ -16642,21 +19391,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-2.4752475247524686</v>
       </c>
       <c r="B40">
         <v>-2.2575016021728516</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>39.692987282712437</v>
       </c>
       <c r="D40">
         <f t="shared" si="100"/>
         <v>60.261992854063088</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <f t="shared" si="101"/>
         <v>6.6908618304191272</v>
       </c>
@@ -16696,7 +19445,7 @@
         <f t="shared" si="110"/>
         <v>-26.956077355770642</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="3">
         <f t="shared" si="111"/>
         <v>-64.156298940056189</v>
       </c>
@@ -17053,21 +19802,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-2.2772277227722704</v>
       </c>
       <c r="B41">
         <v>-6.2239813804626465</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>92.273904601425002</v>
       </c>
       <c r="D41">
         <f t="shared" si="100"/>
         <v>58.618773389174549</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <f t="shared" si="101"/>
         <v>5.7968103471982397</v>
       </c>
@@ -17107,7 +19856,7 @@
         <f t="shared" si="110"/>
         <v>-33.511821907878755</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="3">
         <f t="shared" si="111"/>
         <v>21.00293764021437</v>
       </c>
@@ -17464,21 +20213,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-2.0792079207920722</v>
       </c>
       <c r="B42">
         <v>-1.8245029449462891</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>29.475189116430876</v>
       </c>
       <c r="D42">
         <f t="shared" si="100"/>
         <v>56.975553924286011</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <f t="shared" si="101"/>
         <v>4.9027588639773523</v>
       </c>
@@ -17518,7 +20267,7 @@
         <f t="shared" si="110"/>
         <v>-24.388216529790864</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="3">
         <f t="shared" si="111"/>
         <v>-106.28947718680982</v>
       </c>
@@ -17875,21 +20624,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-1.8811881188118742</v>
       </c>
       <c r="B43">
         <v>-2.6767635345458984</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>38.382700754350111</v>
       </c>
       <c r="D43">
         <f t="shared" si="100"/>
         <v>55.33233445939748</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <f t="shared" si="101"/>
         <v>4.0087073807564648</v>
       </c>
@@ -17929,7 +20678,7 @@
         <f t="shared" si="110"/>
         <v>-25.107339481491842</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="3">
         <f t="shared" si="111"/>
         <v>35.036558244416831</v>
       </c>
@@ -18286,21 +21035,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-1.6831683168316762</v>
       </c>
       <c r="B44">
         <v>-1.5923252105712891</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>23.019786090362764</v>
       </c>
       <c r="D44">
         <f t="shared" si="100"/>
         <v>53.689114994508948</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <f t="shared" si="101"/>
         <v>3.1146558975355783</v>
       </c>
@@ -18340,7 +21089,7 @@
         <f t="shared" si="110"/>
         <v>-22.196731181936027</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="3">
         <f t="shared" si="111"/>
         <v>11.670505736526593</v>
       </c>
@@ -18697,21 +21446,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.4851485148514783</v>
       </c>
       <c r="B45">
         <v>-4.9646520614624023</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>60.077967448908019</v>
       </c>
       <c r="D45">
         <f t="shared" si="100"/>
         <v>52.04589552962041</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <f t="shared" si="101"/>
         <v>2.2206044143146912</v>
       </c>
@@ -18751,7 +21500,7 @@
         <f t="shared" si="110"/>
         <v>-27.63892347587479</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="3">
         <f t="shared" si="111"/>
         <v>80.50590580472678</v>
       </c>
@@ -19108,21 +21857,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1.2871287128712803</v>
       </c>
       <c r="B46">
         <v>-3.8826265335083008</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>44.82740633595904</v>
       </c>
       <c r="D46">
         <f t="shared" si="100"/>
         <v>50.402676064731878</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <f t="shared" si="101"/>
         <v>1.3265529310938047</v>
       </c>
@@ -19162,7 +21911,7 @@
         <f t="shared" si="110"/>
         <v>-24.732837201429419</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="3">
         <f t="shared" si="111"/>
         <v>107.1449204612158</v>
       </c>
@@ -19519,21 +22268,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-1.0891089108910823</v>
       </c>
       <c r="B47">
         <v>-3.4412574768066406</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>37.518673105410869</v>
       </c>
       <c r="D47">
         <f t="shared" si="100"/>
         <v>48.75945659984334</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <f t="shared" si="101"/>
         <v>0.43250144787291778</v>
       </c>
@@ -19573,7 +22322,7 @@
         <f t="shared" si="110"/>
         <v>-23.0274594102316</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <f t="shared" si="111"/>
         <v>103.03855720314451</v>
       </c>
@@ -19930,21 +22679,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-0.89108910891088433</v>
       </c>
       <c r="B48">
         <v>-1.4416475296020508</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>15.739481744783957</v>
       </c>
       <c r="D48">
         <f t="shared" si="100"/>
         <v>47.116237134954801</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <f t="shared" si="101"/>
         <v>-0.46155003534796907</v>
       </c>
@@ -19984,7 +22733,7 @@
         <f t="shared" si="110"/>
         <v>-18.401650561009163</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="3">
         <f t="shared" si="111"/>
         <v>40.453867737615006</v>
       </c>
@@ -20341,21 +23090,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-0.69306930693068636</v>
       </c>
       <c r="B49">
         <v>-0.53940010070800781</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>6.377670731033561</v>
       </c>
       <c r="D49">
         <f t="shared" si="100"/>
         <v>45.473017670066277</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <f t="shared" si="101"/>
         <v>-1.3556015185688559</v>
       </c>
@@ -20395,7 +23144,7 @@
         <f t="shared" si="110"/>
         <v>-15.832501628695894</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="3">
         <f t="shared" si="111"/>
         <v>61.111388713263459</v>
       </c>
@@ -20752,21 +23501,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-0.49504950495048833</v>
       </c>
       <c r="B50">
         <v>-9.7022253274917603</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>83.569896840672698</v>
       </c>
       <c r="D50">
         <f t="shared" si="100"/>
         <v>43.829798205177738</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <f t="shared" si="101"/>
         <v>-2.2496530017897429</v>
       </c>
@@ -20806,7 +23555,7 @@
         <f t="shared" si="110"/>
         <v>-32.127156723132693</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="3">
         <f t="shared" si="111"/>
         <v>77.725635197608327</v>
       </c>
@@ -21163,21 +23912,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-0.2970297029702903</v>
       </c>
       <c r="B51">
         <v>-6.0018606185913086</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>48.449443605013556</v>
       </c>
       <c r="D51">
         <f t="shared" si="100"/>
         <v>42.1865787402892</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <f t="shared" si="101"/>
         <v>-3.1437044850106299</v>
       </c>
@@ -21217,7 +23966,7 @@
         <f t="shared" si="110"/>
         <v>-24.31381951522577</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="3">
         <f t="shared" si="111"/>
         <v>7.4648813124512507</v>
       </c>
@@ -21574,21 +24323,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="52" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-9.900990099009227E-2</v>
       </c>
       <c r="B52">
         <v>-1.4340047836303711</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>11.473778460846351</v>
       </c>
       <c r="D52">
         <f t="shared" si="100"/>
         <v>40.543359275400668</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <f t="shared" si="101"/>
         <v>-4.0377559682315178</v>
       </c>
@@ -21628,7 +24377,7 @@
         <f t="shared" si="110"/>
         <v>-14.874643810493035</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="3">
         <f t="shared" si="111"/>
         <v>-68.389575220799529</v>
       </c>
@@ -21985,21 +24734,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="53" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9.9009900990105759E-2</v>
       </c>
       <c r="B53">
         <v>-8.9999562501907349</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>61.33624238008921</v>
       </c>
       <c r="D53">
         <f t="shared" si="100"/>
         <v>38.900139810512137</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <f t="shared" si="101"/>
         <v>-4.9318074514524044</v>
       </c>
@@ -22039,7 +24788,7 @@
         <f t="shared" si="110"/>
         <v>-28.176462717967912</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="3">
         <f t="shared" si="111"/>
         <v>-55.238559828396468</v>
       </c>
@@ -22396,21 +25145,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="54" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.29702970297030379</v>
       </c>
       <c r="B54">
         <v>-1.7829656600952148</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>11.980204983840132</v>
       </c>
       <c r="D54">
         <f t="shared" si="100"/>
         <v>37.256920345623598</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <f t="shared" si="101"/>
         <v>-5.825858934673291</v>
       </c>
@@ -22450,7 +25199,7 @@
         <f t="shared" si="110"/>
         <v>-13.772319489317578</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="3">
         <f t="shared" si="111"/>
         <v>-37.362494133020967</v>
       </c>
@@ -22807,21 +25556,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="55" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.49504950495050182</v>
       </c>
       <c r="B55">
         <v>-0.85787010192871094</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>5.9761002180377787</v>
       </c>
       <c r="D55">
         <f t="shared" si="100"/>
         <v>35.613700880735067</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <f t="shared" si="101"/>
         <v>-6.7199104178941775</v>
       </c>
@@ -22861,7 +25610,7 @@
         <f t="shared" si="110"/>
         <v>-11.160348945306314</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="3">
         <f t="shared" si="111"/>
         <v>-44.789573896850818</v>
       </c>
@@ -23218,21 +25967,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="56" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.6930693069306999</v>
       </c>
       <c r="B56">
         <v>-7.0481455326080322</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>36.16280377417155</v>
       </c>
       <c r="D56">
         <f t="shared" si="100"/>
         <v>33.970481415846528</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <f t="shared" si="101"/>
         <v>-7.6139619011150659</v>
       </c>
@@ -23272,7 +26021,7 @@
         <f t="shared" si="110"/>
         <v>-21.883897031207191</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="3">
         <f t="shared" si="111"/>
         <v>-9.6958036666231528</v>
       </c>
@@ -23629,21 +26378,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="57" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.89108910891089788</v>
       </c>
       <c r="B57">
         <v>-5.0210494995117188</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>23.518778723649429</v>
       </c>
       <c r="D57">
         <f t="shared" si="100"/>
         <v>32.32726195095799</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <f t="shared" si="101"/>
         <v>-8.5080133843359533</v>
       </c>
@@ -23683,7 +26432,7 @@
         <f t="shared" si="110"/>
         <v>-17.206574183481084</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="3">
         <f t="shared" si="111"/>
         <v>2.9867908121540157</v>
       </c>
@@ -24040,21 +26789,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="58" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.0891089108910958</v>
       </c>
       <c r="B58">
         <v>-6.1879868507385254</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>25.283891316103293</v>
       </c>
       <c r="D58">
         <f t="shared" si="100"/>
         <v>30.684042486069458</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <f t="shared" si="101"/>
         <v>-9.4020648675568399</v>
       </c>
@@ -24094,7 +26843,7 @@
         <f t="shared" si="110"/>
         <v>-18.515459471349523</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="3">
         <f t="shared" si="111"/>
         <v>-7.4367504916662943</v>
       </c>
@@ -24451,21 +27200,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.2871287128712938</v>
       </c>
       <c r="B59">
         <v>-9.0038341283798218</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>30.916258924452023</v>
       </c>
       <c r="D59">
         <f t="shared" si="100"/>
         <v>29.040823021180927</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <f t="shared" si="101"/>
         <v>-10.296116350777726</v>
       </c>
@@ -24505,7 +27254,7 @@
         <f t="shared" si="110"/>
         <v>-22.914706326762072</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="3">
         <f t="shared" si="111"/>
         <v>-12.893210829399258</v>
       </c>
@@ -24862,21 +27611,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.4851485148514918</v>
       </c>
       <c r="B60">
         <v>-5.8501453399658203</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>18.091679500979492</v>
       </c>
       <c r="D60">
         <f t="shared" si="100"/>
         <v>27.397603556292392</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <f t="shared" si="101"/>
         <v>-11.190167833998613</v>
       </c>
@@ -24916,7 +27665,7 @@
         <f t="shared" si="110"/>
         <v>-16.125940702487213</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="3">
         <f t="shared" si="111"/>
         <v>-12.2428078988879</v>
       </c>
@@ -25273,21 +28022,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.6831683168316898</v>
       </c>
       <c r="B61">
         <v>-8.932044506072998</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>21.25496417383912</v>
       </c>
       <c r="D61">
         <f t="shared" si="100"/>
         <v>25.754384091403853</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <f t="shared" si="101"/>
         <v>-12.0842193172195</v>
       </c>
@@ -25327,7 +28076,7 @@
         <f t="shared" si="110"/>
         <v>-21.023817906299289</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="3">
         <f t="shared" si="111"/>
         <v>-3.0720620984956222</v>
       </c>
@@ -25684,21 +28433,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.8811881188118877</v>
       </c>
       <c r="B62">
         <v>-2.072577953338623</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>7.3501873483331401</v>
       </c>
       <c r="D62">
         <f t="shared" si="100"/>
         <v>24.111164626515322</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <f t="shared" si="101"/>
         <v>-12.978270800440386</v>
       </c>
@@ -25738,7 +28487,7 @@
         <f t="shared" si="110"/>
         <v>-7.2897407175427285</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="3">
         <f t="shared" si="111"/>
         <v>2.575325381177815</v>
       </c>
@@ -26095,21 +28844,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.0792079207920859</v>
       </c>
       <c r="B63">
         <v>-9.4095528125762939</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>12.496725048858366</v>
       </c>
       <c r="D63">
         <f t="shared" si="100"/>
         <v>22.467945161626787</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <f t="shared" si="101"/>
         <v>-13.872322283661275</v>
       </c>
@@ -26149,7 +28898,7 @@
         <f t="shared" si="110"/>
         <v>-20.162415197052763</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="3">
         <f t="shared" si="111"/>
         <v>-1.4690471176076734</v>
       </c>
@@ -26506,21 +29255,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.2772277227722841</v>
       </c>
       <c r="B64">
         <v>-9.1604208946228027</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>7.7276191232296654</v>
       </c>
       <c r="D64">
         <f t="shared" si="100"/>
         <v>20.824725696738248</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <f t="shared" si="101"/>
         <v>-14.766373766882163</v>
       </c>
@@ -26560,7 +29309,7 @@
         <f t="shared" si="110"/>
         <v>-18.817325288125023</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="3">
         <f t="shared" si="111"/>
         <v>-0.1695287570626671</v>
       </c>
@@ -26917,21 +29666,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.4752475247524823</v>
       </c>
       <c r="B65">
         <v>-6.0926957130432129</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>4.5329303517549704</v>
       </c>
       <c r="D65">
         <f t="shared" si="100"/>
         <v>19.181506231849713</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <f t="shared" si="101"/>
         <v>-15.660425250103049</v>
       </c>
@@ -26971,7 +29720,7 @@
         <f t="shared" si="110"/>
         <v>-12.18967133072344</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="3">
         <f t="shared" si="111"/>
         <v>1.1541355500538777</v>
       </c>
@@ -27328,21 +30077,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.6732673267326805</v>
       </c>
       <c r="B66">
         <v>-8.4290397167205811</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>-0.44959319410308751</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D102" si="200">-8.2982582976871*(-4.78675742764331+A66)</f>
         <v>17.538286766961178</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <f t="shared" ref="E66:E102" si="201">-4.51495999026548*(0.993315936245589+A66)</f>
         <v>-16.554476733323938</v>
       </c>
@@ -27382,7 +30131,7 @@
         <f t="shared" ref="N66:N102" si="210">1.87418458585183*(-6.26830936687482+2.36623548778424*A66+B66)</f>
         <v>-15.690240541207308</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="3">
         <f t="shared" ref="O66:O102" si="211">2.17337930756405*(0.553522432629451-2.03212557919344*(-3.90152780374793+A66)*(2.17337930756405-2.46325448171303*COS(2.29854117014382-0.727140141483572*A66))*COS(0.543707892585052*(-6.23440227317705+0.952390432897537*(-3.90152780374793+A66)*A66)*SIN(0.951253809228297*B66)))</f>
         <v>0.97768653629606539</v>
       </c>
@@ -27739,21 +30488,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="67" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.8712871287128787</v>
       </c>
       <c r="B67">
         <v>-8.8447099924087524</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>-5.0298461528307854</v>
       </c>
       <c r="D67">
         <f t="shared" si="200"/>
         <v>15.89506730207264</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <f t="shared" si="201"/>
         <v>-17.448528216544826</v>
       </c>
@@ -27793,7 +30542,7 @@
         <f t="shared" si="210"/>
         <v>-15.591112656243256</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="3">
         <f t="shared" si="211"/>
         <v>1.7551184198486105</v>
       </c>
@@ -28150,21 +30899,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="68" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3.0693069306930769</v>
       </c>
       <c r="B68">
         <v>-3.9326386451721191</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>1.73769040239074</v>
       </c>
       <c r="D68">
         <f t="shared" si="200"/>
         <v>14.251847837184105</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <f t="shared" si="201"/>
         <v>-18.342579699765714</v>
       </c>
@@ -28204,7 +30953,7 @@
         <f t="shared" si="210"/>
         <v>-5.5068135441923172</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="3">
         <f t="shared" si="211"/>
         <v>2.1285870732579406</v>
       </c>
@@ -28561,21 +31310,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="69" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.2673267326732751</v>
       </c>
       <c r="B69">
         <v>-2.5336127281188965</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>4.576291284401286</v>
       </c>
       <c r="D69">
         <f t="shared" si="200"/>
         <v>12.608628372295568</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <f t="shared" si="201"/>
         <v>-19.236631182986603</v>
       </c>
@@ -28615,7 +31364,7 @@
         <f t="shared" si="210"/>
         <v>-2.0066100267883407</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="3">
         <f t="shared" si="211"/>
         <v>1.9841840022112263</v>
       </c>
@@ -28972,21 +31721,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.4653465346534733</v>
       </c>
       <c r="B70">
         <v>-7.0957036018371582</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>-11.088663844568742</v>
       </c>
       <c r="D70">
         <f t="shared" si="200"/>
         <v>10.965408907407031</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <f t="shared" si="201"/>
         <v>-20.130682666207491</v>
       </c>
@@ -29026,7 +31775,7 @@
         <f t="shared" si="210"/>
         <v>-9.6786397131108064</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="3">
         <f t="shared" si="211"/>
         <v>1.3365076152702093</v>
       </c>
@@ -29383,21 +32132,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="71" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.6633663366336715</v>
       </c>
       <c r="B71">
         <v>-7.4990801811218262</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>-15.501819489481719</v>
       </c>
       <c r="D71">
         <f t="shared" si="200"/>
         <v>9.3221894425184963</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <f t="shared" si="201"/>
         <v>-21.024734149428376</v>
       </c>
@@ -29437,7 +32186,7 @@
         <f t="shared" si="210"/>
         <v>-9.5564711718441622</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="3">
         <f t="shared" si="211"/>
         <v>1.3326924863282594</v>
       </c>
@@ -29794,21 +32543,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="72" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.8613861386138697</v>
       </c>
       <c r="B72">
         <v>-2.6675586700439453</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>3.6817913844461287</v>
       </c>
       <c r="D72">
         <f t="shared" si="200"/>
         <v>7.6789699776299596</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <f t="shared" si="201"/>
         <v>-21.918785632649264</v>
       </c>
@@ -29848,7 +32597,7 @@
         <f t="shared" si="210"/>
         <v>0.37686267888514746</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="3">
         <f t="shared" si="211"/>
         <v>1.2014493571632689</v>
       </c>
@@ -30205,21 +32954,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0594059405940675</v>
       </c>
       <c r="B73">
         <v>-8.6029279232025146</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>-27.069058100904599</v>
       </c>
       <c r="D73">
         <f t="shared" si="200"/>
         <v>6.0357505127414273</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <f t="shared" si="201"/>
         <v>-22.812837115870153</v>
       </c>
@@ -30259,7 +33008,7 @@
         <f t="shared" si="210"/>
         <v>-9.8689441782679275</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="3">
         <f t="shared" si="211"/>
         <v>1.3498349746752154</v>
       </c>
@@ -30616,21 +33365,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.2574257425742656</v>
       </c>
       <c r="B74">
         <v>-5.4457049369812012</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>-12.30844464310016</v>
       </c>
       <c r="D74">
         <f t="shared" si="200"/>
         <v>4.3925310478528905</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <f t="shared" si="201"/>
         <v>-23.706888599091041</v>
       </c>
@@ -30670,7 +33419,7 @@
         <f t="shared" si="210"/>
         <v>-3.0735548149392491</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="3">
         <f t="shared" si="211"/>
         <v>1.6898530418118154</v>
       </c>
@@ -31027,21 +33776,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.4554455445544638</v>
       </c>
       <c r="B75">
         <v>-6.4256477355957031</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>-20.05684157364891</v>
       </c>
       <c r="D75">
         <f t="shared" si="200"/>
         <v>2.7493115829643546</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <f t="shared" si="201"/>
         <v>-24.600940082311929</v>
       </c>
@@ -31081,7 +33830,7 @@
         <f t="shared" si="210"/>
         <v>-4.0319777946634456</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="3">
         <f t="shared" si="211"/>
         <v>-0.45297068074948149</v>
       </c>
@@ -31438,21 +34187,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.653465346534662</v>
       </c>
       <c r="B76">
         <v>-8.9391666650772095</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>-39.565400521564413</v>
       </c>
       <c r="D76">
         <f t="shared" si="200"/>
         <v>1.1060921180758183</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <f t="shared" si="201"/>
         <v>-25.494991565532818</v>
       </c>
@@ -31492,7 +34241,7 @@
         <f t="shared" si="210"/>
         <v>-7.8646055200888698</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="3">
         <f t="shared" si="211"/>
         <v>0.1523189697052427</v>
       </c>
@@ -31849,21 +34598,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.8514851485148602</v>
       </c>
       <c r="B77">
         <v>-8.4889757633209229</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>-39.592681036055438</v>
       </c>
       <c r="D77">
         <f t="shared" si="200"/>
         <v>-0.5371273468127179</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <f t="shared" si="201"/>
         <v>-26.389043048753706</v>
       </c>
@@ -31903,7 +34652,7 @@
         <f t="shared" si="210"/>
         <v>-6.1426939628708981</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="3">
         <f t="shared" si="211"/>
         <v>-1.953416166984393</v>
       </c>
@@ -32260,21 +35009,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.0495049504950584</v>
       </c>
       <c r="B78">
         <v>-7.3682241439819336</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <v>-33.542583621234314</v>
       </c>
       <c r="D78">
         <f t="shared" si="200"/>
         <v>-2.1803468117012539</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <f t="shared" si="201"/>
         <v>-27.283094531974591</v>
       </c>
@@ -32314,7 +35063,7 @@
         <f t="shared" si="210"/>
         <v>-3.1640278448816788</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="3">
         <f t="shared" si="211"/>
         <v>-7.0814175627403824</v>
       </c>
@@ -32671,21 +35420,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.2475247524752566</v>
       </c>
       <c r="B79">
         <v>-4.8848743438720703</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>-14.169860661655051</v>
       </c>
       <c r="D79">
         <f t="shared" si="200"/>
         <v>-3.8235662765897902</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <f t="shared" si="201"/>
         <v>-28.177146015195479</v>
       </c>
@@ -32725,7 +35474,7 @@
         <f t="shared" si="210"/>
         <v>2.3683987802180577</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="3">
         <f t="shared" si="211"/>
         <v>-10.501244474965279</v>
       </c>
@@ -33082,21 +35831,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.4455445544554548</v>
       </c>
       <c r="B80">
         <v>-6.3963336944580078</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>-29.066268999241728</v>
       </c>
       <c r="D80">
         <f t="shared" si="200"/>
         <v>-5.4667857414783265</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <f t="shared" si="201"/>
         <v>-29.071197498416367</v>
       </c>
@@ -33136,7 +35885,7 @@
         <f t="shared" si="210"/>
         <v>0.41381567166388061</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="3">
         <f t="shared" si="211"/>
         <v>-14.838403960637175</v>
       </c>
@@ -33493,21 +36242,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.643564356435653</v>
       </c>
       <c r="B81">
         <v>-9.1258376836776733</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>-57.776074391687175</v>
       </c>
       <c r="D81">
         <f t="shared" si="200"/>
         <v>-7.1100052063668624</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <f t="shared" si="201"/>
         <v>-29.965248981637256</v>
       </c>
@@ -33547,7 +36296,7 @@
         <f t="shared" si="210"/>
         <v>-3.8236079234970886</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="3">
         <f t="shared" si="211"/>
         <v>-7.3897463804452679</v>
       </c>
@@ -33904,21 +36653,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.8415841584158512</v>
       </c>
       <c r="B82">
         <v>-3.1091980934143066</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>2.4005651501578313</v>
       </c>
       <c r="D82">
         <f t="shared" si="200"/>
         <v>-8.7532246712553992</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <f t="shared" si="201"/>
         <v>-30.859300464858144</v>
       </c>
@@ -33958,7 +36707,7 @@
         <f t="shared" si="210"/>
         <v>8.3308559636559902</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="3">
         <f t="shared" si="211"/>
         <v>-22.545595625461747</v>
       </c>
@@ -34315,21 +37064,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6.0396039603960494</v>
       </c>
       <c r="B83">
         <v>-8.3167904615402222</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>-54.996012598694023</v>
       </c>
       <c r="D83">
         <f t="shared" si="200"/>
         <v>-10.396444136143936</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <f t="shared" si="201"/>
         <v>-31.753351948079032</v>
       </c>
@@ -34369,7 +37118,7 @@
         <f t="shared" si="210"/>
         <v>-0.55096267362961937</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="3">
         <f t="shared" si="211"/>
         <v>32.969570256850098</v>
       </c>
@@ -34726,21 +37475,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6.2376237623762476</v>
       </c>
       <c r="B84">
         <v>-7.3329038619995117</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>-45.981408895528745</v>
       </c>
       <c r="D84">
         <f t="shared" si="200"/>
         <v>-12.039663601032471</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <f t="shared" si="201"/>
         <v>-32.647403431299921</v>
       </c>
@@ -34780,7 +37529,7 @@
         <f t="shared" si="210"/>
         <v>2.1711931339113564</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="3">
         <f t="shared" si="211"/>
         <v>34.866554040571771</v>
       </c>
@@ -35137,21 +37886,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6.4356435643564458</v>
       </c>
       <c r="B85">
         <v>-5.4179191589355469E-2</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>41.750728531545818</v>
       </c>
       <c r="D85">
         <f t="shared" si="200"/>
         <v>-13.682883065921008</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <f t="shared" si="201"/>
         <v>-33.541454914520806</v>
       </c>
@@ -35191,7 +37940,7 @@
         <f t="shared" si="210"/>
         <v>16.691037424309116</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="3">
         <f t="shared" si="211"/>
         <v>-41.601195089710878</v>
       </c>
@@ -35548,21 +38297,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.633663366336644</v>
       </c>
       <c r="B86">
         <v>-0.52152061462402344</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>38.277357372182713</v>
       </c>
       <c r="D86">
         <f t="shared" si="200"/>
         <v>-15.326102530809544</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <f t="shared" si="201"/>
         <v>-34.435506397741698</v>
       </c>
@@ -35602,7 +38351,7 @@
         <f t="shared" si="210"/>
         <v>16.693324041383093</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="3">
         <f t="shared" si="211"/>
         <v>49.603151637719833</v>
       </c>
@@ -35959,21 +38708,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6.8316831683168422</v>
       </c>
       <c r="B87">
         <v>-2.5053386688232422</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>13.862225549827144</v>
       </c>
       <c r="D87">
         <f t="shared" si="200"/>
         <v>-16.969321995698081</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <f t="shared" si="201"/>
         <v>-35.329557880962582</v>
       </c>
@@ -36013,7 +38762,7 @@
         <f t="shared" si="210"/>
         <v>13.853453531523952</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="3">
         <f t="shared" si="211"/>
         <v>-3.6136600726717658</v>
       </c>
@@ -36370,21 +39119,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7.0297029702970404</v>
       </c>
       <c r="B88">
         <v>-1.5983133316040039</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>27.897913247904988</v>
       </c>
       <c r="D88">
         <f t="shared" si="200"/>
         <v>-18.612541460586616</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <f t="shared" si="201"/>
         <v>-36.223609364183467</v>
       </c>
@@ -36424,7 +39173,7 @@
         <f t="shared" si="210"/>
         <v>16.43155714597291</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="3">
         <f t="shared" si="211"/>
         <v>9.4659552145918333</v>
       </c>
@@ -36781,21 +39530,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7.2277227722772386</v>
       </c>
       <c r="B89">
         <v>-8.4427076578140259</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>-70.725721116592439</v>
       </c>
       <c r="D89">
         <f t="shared" si="200"/>
         <v>-20.255760925475151</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <f t="shared" si="201"/>
         <v>-37.117660847404359</v>
       </c>
@@ -36835,7 +39584,7 @@
         <f t="shared" si="210"/>
         <v>4.4820695087539697</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="3">
         <f t="shared" si="211"/>
         <v>60.197514932764548</v>
       </c>
@@ -37192,21 +39941,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7.4257425742574368</v>
       </c>
       <c r="B90">
         <v>-0.40164852142333984</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>50.005576852840306</v>
       </c>
       <c r="D90">
         <f t="shared" si="200"/>
         <v>-21.89898039036369</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="4">
         <f t="shared" si="201"/>
         <v>-38.011712330625244</v>
       </c>
@@ -37246,7 +39995,7 @@
         <f t="shared" si="210"/>
         <v>20.430669304556034</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="3">
         <f t="shared" si="211"/>
         <v>58.756857362476381</v>
       </c>
@@ -37603,21 +40352,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7.623762376237635</v>
       </c>
       <c r="B91">
         <v>-6.0870342254638672</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>-37.487315185303075</v>
       </c>
       <c r="D91">
         <f t="shared" si="200"/>
         <v>-23.542199855252225</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <f t="shared" si="201"/>
         <v>-38.905763813846136</v>
       </c>
@@ -37657,7 +40406,7 @@
         <f t="shared" si="210"/>
         <v>10.653377761876525</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="3">
         <f t="shared" si="211"/>
         <v>-43.977410544359927</v>
       </c>
@@ -38014,21 +40763,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7.8217821782178332</v>
       </c>
       <c r="B92">
         <v>-4.849271297454834</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>-17.664655909656517</v>
       </c>
       <c r="D92">
         <f t="shared" si="200"/>
         <v>-25.18541932014076</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="4">
         <f t="shared" si="201"/>
         <v>-39.79981529706702</v>
       </c>
@@ -38068,7 +40817,7 @@
         <f t="shared" si="210"/>
         <v>13.851344670945489</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="3">
         <f t="shared" si="211"/>
         <v>-77.008678947570587</v>
       </c>
@@ -38425,21 +41174,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8.0198019801980305</v>
       </c>
       <c r="B93">
         <v>-9.5331001281738281</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>-97.311801157258628</v>
       </c>
       <c r="D93">
         <f t="shared" si="200"/>
         <v>-26.828638785029291</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="4">
         <f t="shared" si="201"/>
         <v>-40.693866780287898</v>
       </c>
@@ -38479,7 +41228,7 @@
         <f t="shared" si="210"/>
         <v>5.9511555820991537</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="3">
         <f t="shared" si="211"/>
         <v>-4.6032085799262745</v>
       </c>
@@ -38836,21 +41585,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8.2178217821782287</v>
       </c>
       <c r="B94">
         <v>-7.319366455078125</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>-60.679587229667163</v>
       </c>
       <c r="D94">
         <f t="shared" si="200"/>
         <v>-28.471858249917826</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <f t="shared" si="201"/>
         <v>-41.58791826350879</v>
       </c>
@@ -38890,7 +41639,7 @@
         <f t="shared" si="210"/>
         <v>10.978271817851885</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="3">
         <f t="shared" si="211"/>
         <v>83.013927003873462</v>
       </c>
@@ -39247,21 +41996,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8.4158415841584269</v>
       </c>
       <c r="B95">
         <v>-6.9228262901306152</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>-54.498054516594777</v>
       </c>
       <c r="D95">
         <f t="shared" si="200"/>
         <v>-30.115077714806361</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <f t="shared" si="201"/>
         <v>-42.481969746729675</v>
       </c>
@@ -39301,7 +42050,7 @@
         <f t="shared" si="210"/>
         <v>12.599631991123255</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="3">
         <f t="shared" si="211"/>
         <v>-9.653740006185723</v>
       </c>
@@ -39658,21 +42407,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8.6138613861386251</v>
       </c>
       <c r="B96">
         <v>-0.11400318145751953</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>73.050607441851014</v>
       </c>
       <c r="D96">
         <f t="shared" si="200"/>
         <v>-31.7582971796949</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="4">
         <f t="shared" si="201"/>
         <v>-43.376021229950567</v>
       </c>
@@ -39712,7 +42461,7 @@
         <f t="shared" si="210"/>
         <v>26.238794017645713</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="3">
         <f t="shared" si="211"/>
         <v>27.705411036935597</v>
       </c>
@@ -40069,21 +42818,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8.8118811881188233</v>
       </c>
       <c r="B97">
         <v>-5.3296566009521484</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>-24.936055943003169</v>
       </c>
       <c r="D97">
         <f t="shared" si="200"/>
         <v>-33.401516644583431</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="4">
         <f t="shared" si="201"/>
         <v>-44.270072713171452</v>
       </c>
@@ -40123,7 +42872,7 @@
         <f t="shared" si="210"/>
         <v>17.341867482139104</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="3">
         <f t="shared" si="211"/>
         <v>-38.306749934928668</v>
       </c>
@@ -40480,21 +43229,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9.0099009900990215</v>
       </c>
       <c r="B98">
         <v>-4.9828963279724121</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="5">
         <v>-17.627617529684031</v>
       </c>
       <c r="D98">
         <f t="shared" si="200"/>
         <v>-35.04473610947197</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="4">
         <f t="shared" si="201"/>
         <v>-45.164124196392343</v>
       </c>
@@ -40534,7 +43283,7 @@
         <f t="shared" si="210"/>
         <v>18.869930949199102</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="3">
         <f t="shared" si="211"/>
         <v>2.3386690112095136</v>
       </c>
@@ -40891,21 +43640,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9.2079207920792197</v>
       </c>
       <c r="B99">
         <v>-5.9960813522338867</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>-37.875951683856641</v>
       </c>
       <c r="D99">
         <f t="shared" si="200"/>
         <v>-36.687955574360508</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="4">
         <f t="shared" si="201"/>
         <v>-46.058175679613228</v>
       </c>
@@ -40945,7 +43694,7 @@
         <f t="shared" si="210"/>
         <v>17.849205902567938</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="3">
         <f t="shared" si="211"/>
         <v>-56.778063703973871</v>
       </c>
@@ -41302,21 +44051,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="100" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9.4059405940594178</v>
       </c>
       <c r="B100">
         <v>-5.1411838531494141</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>-19.613004286561932</v>
       </c>
       <c r="D100">
         <f t="shared" si="200"/>
         <v>-38.33117503924904</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="4">
         <f t="shared" si="201"/>
         <v>-46.952227162834113</v>
       </c>
@@ -41356,7 +44105,7 @@
         <f t="shared" si="210"/>
         <v>20.329612326290945</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="3">
         <f t="shared" si="211"/>
         <v>32.129222755267314</v>
       </c>
@@ -41713,21 +44462,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="101" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9.603960396039616</v>
       </c>
       <c r="B101">
         <v>-8.2091385126113892</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>-85.820698605192888</v>
       </c>
       <c r="D101">
         <f t="shared" si="200"/>
         <v>-39.974394504137578</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="4">
         <f t="shared" si="201"/>
         <v>-47.846278646055005</v>
       </c>
@@ -41767,7 +44516,7 @@
         <f t="shared" si="210"/>
         <v>15.457869701890617</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="3">
         <f t="shared" si="211"/>
         <v>-54.238257818321699</v>
       </c>
@@ -42124,21 +44873,21 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:103" ht="15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9.8019801980198142</v>
       </c>
       <c r="B102">
         <v>-9.369160532951355</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>-112.8460385151418</v>
       </c>
       <c r="D102">
         <f t="shared" si="200"/>
         <v>-41.617613969026117</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="4">
         <f t="shared" si="201"/>
         <v>-48.74033012927589</v>
       </c>
@@ -42178,7 +44927,7 @@
         <f t="shared" si="210"/>
         <v>14.16194502057636</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="3">
         <f t="shared" si="211"/>
         <v>-43.01161277373474</v>
       </c>
@@ -42537,5 +45286,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>